--- a/Menu/HotPot_Ingredients_Workbook.xlsx
+++ b/Menu/HotPot_Ingredients_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hot-pot-world-website\Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EA14139-24DE-4010-B247-B21C089568D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD923AAA-B05D-4AB3-8656-040688461C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{377B3DF5-2800-4332-8733-1BB2BCABC50E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="254">
   <si>
     <t>Product_EN</t>
   </si>
@@ -53,12 +53,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve"> SMALL BROTH 1 PERSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LARGE BROTH 2-6 PEOPLE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> BULION MAŁY 1 OS.</t>
   </si>
   <si>
@@ -89,18 +83,9 @@
     <t>SPICY BROTH</t>
   </si>
   <si>
-    <t xml:space="preserve"> SPICY-SOUR BROTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MUSHROOM BROTH</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TOMATO BROTH</t>
   </si>
   <si>
-    <t xml:space="preserve"> TOM YUM BROTH</t>
-  </si>
-  <si>
     <t xml:space="preserve"> KREWETKI KOKTAJLOWE</t>
   </si>
   <si>
@@ -173,9 +158,6 @@
     <t xml:space="preserve"> ZIEMNIAKI W PLASTERKACH</t>
   </si>
   <si>
-    <t xml:space="preserve"> BEEF LOIN</t>
-  </si>
-  <si>
     <t>BARANINA</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>BEEF MEATBALLS</t>
   </si>
   <si>
-    <t xml:space="preserve"> FISH MEATBALLS</t>
-  </si>
-  <si>
     <t>WHEAT NOODLES</t>
   </si>
   <si>
@@ -311,9 +290,6 @@
     <t>MIĘSA</t>
   </si>
   <si>
-    <t>TOFU</t>
-  </si>
-  <si>
     <t>PULPETY</t>
   </si>
   <si>
@@ -623,9 +599,6 @@
     <t xml:space="preserve"> 8 PLN</t>
   </si>
   <si>
-    <t>SAUCE</t>
-  </si>
-  <si>
     <t>BULION OSTRO KWAŚNY</t>
   </si>
   <si>
@@ -651,6 +624,180 @@
   </si>
   <si>
     <t>冬阴功汤底</t>
+  </si>
+  <si>
+    <t>SMALL BROTH 1 PERSON</t>
+  </si>
+  <si>
+    <t>LARGE BROTH &gt;2 PEOPLE</t>
+  </si>
+  <si>
+    <t>SAUCE 1 PERSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPICY SOUR BROTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUSHROOMS BROTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOM YUM KUNG BROTH</t>
+  </si>
+  <si>
+    <t>SQUID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FISH TOFU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRAB STICKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FISH SLICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COCKTAIL SHRIMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHRIMP MINCE WIRH ROE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHRIMP</t>
+  </si>
+  <si>
+    <t>MUN MUSHROOMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRESH SHITAKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHIMEJI MUSHROOMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KING OYSTER MUSHROOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CORDYCEPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENOKI MUSHROOMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHINESE CABBAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CORN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAMBOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BEAN SPROUTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEAWEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPINACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WATER SPINACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHITE RADISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHRYSANTHEMUM LEAVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LETTUCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POTATO SLICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOTUS ROOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TARO SLICES</t>
+  </si>
+  <si>
+    <t>15ZŁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25ZŁ</t>
+  </si>
+  <si>
+    <t>LAMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BEEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BLACK TRIPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHITE TRIPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TONGUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DUCK BLOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPICY BEEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PORK TENDERLOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BEEF TENDERLOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHICKEN</t>
+  </si>
+  <si>
+    <t>TOFU AND LOCAL SPECIALTIES</t>
+  </si>
+  <si>
+    <t>FRESH TOFU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOFU SKIN SLICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRIED TOFU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOFU SKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUAIL EGGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RICE CAKES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHINESE DOUGHSTICKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HANDMADE NOODLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WIDE NOODLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FISH MEATBALLS WITH ROE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SQUID MEATBALLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOFU POUCH WITH CRAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MINI SAUSAGES</t>
   </si>
 </sst>
 </file>
@@ -705,15 +852,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1051,8 +1196,8 @@
   <dimension ref="B1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,16 +1214,16 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1095,13 +1240,13 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1121,16 +1266,16 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -1147,103 +1292,103 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
@@ -1251,25 +1396,25 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I8" t="s">
         <v>4</v>
@@ -1277,25 +1422,25 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
@@ -1303,25 +1448,25 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
@@ -1329,25 +1474,25 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="G11" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I11" t="s">
         <v>4</v>
@@ -1355,13 +1500,13 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
@@ -1381,16 +1526,16 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>4</v>
@@ -1407,178 +1552,198 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>202</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>203</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>204</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>205</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>206</v>
       </c>
       <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>208</v>
+      </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>4</v>
@@ -1595,465 +1760,536 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
         <v>89</v>
       </c>
-      <c r="G24" t="s">
-        <v>97</v>
-      </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>217</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F31" t="s">
+        <v>218</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
+        <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>220</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
       </c>
       <c r="G34" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>222</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>223</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>224</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F38" t="s">
+        <v>225</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="I38" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
+        <v>226</v>
       </c>
       <c r="G39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="I39" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F40" t="s">
+        <v>227</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="I41" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>4</v>
@@ -2070,250 +2306,276 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="F44" t="s">
+        <v>231</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I44" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
+        <v>232</v>
       </c>
       <c r="G45" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" t="s">
         <v>126</v>
       </c>
-      <c r="H45" t="s">
-        <v>134</v>
-      </c>
       <c r="I45" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="F46" t="s">
+        <v>233</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="F47" t="s">
+        <v>234</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H47" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="F48" t="s">
+        <v>235</v>
       </c>
       <c r="G48" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H48" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I48" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="F49" t="s">
+        <v>236</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="F50" t="s">
+        <v>237</v>
       </c>
       <c r="G50" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H50" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I50" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>238</v>
       </c>
       <c r="G51" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>131</v>
+        <v>239</v>
+      </c>
+      <c r="G52" t="s">
+        <v>123</v>
       </c>
       <c r="H52" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>4</v>
@@ -2330,226 +2592,276 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="G54" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="F55" t="s">
+        <v>242</v>
       </c>
       <c r="G55" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H55" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I55" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="F56" t="s">
+        <v>243</v>
       </c>
       <c r="G56" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H56" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I56" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
+        <v>240</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="F57" t="s">
+        <v>244</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H57" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I57" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>240</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="F58" t="s">
+        <v>245</v>
       </c>
       <c r="G58" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H58" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" t="s">
         <v>162</v>
-      </c>
-      <c r="I58" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>240</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="F59" t="s">
+        <v>246</v>
       </c>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s">
+        <v>155</v>
+      </c>
+      <c r="I59" t="s">
         <v>163</v>
-      </c>
-      <c r="I59" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="F60" t="s">
+        <v>247</v>
       </c>
       <c r="G60" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H60" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I60" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>240</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="F61" t="s">
+        <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H61" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I61" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
+        <v>240</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>149</v>
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" t="s">
+        <v>248</v>
       </c>
       <c r="G62" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H62" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I62" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E63" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" t="s">
+        <v>249</v>
+      </c>
+      <c r="G63" t="s">
         <v>149</v>
       </c>
-      <c r="G63" t="s">
-        <v>157</v>
-      </c>
       <c r="H63" t="s">
-        <v>167</v>
-      </c>
-      <c r="I63" s="4">
+        <v>159</v>
+      </c>
+      <c r="I63" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>4</v>
@@ -2566,140 +2878,146 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="G66" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="G68" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="G69" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H69" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I69" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>4</v>
@@ -2716,91 +3034,91 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
         <v>81</v>
       </c>
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H71" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I71" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
         <v>81</v>
       </c>
-      <c r="C72" t="s">
-        <v>88</v>
-      </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G72" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H72" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
         <v>81</v>
       </c>
-      <c r="C73" t="s">
-        <v>88</v>
-      </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H73" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I73" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>4</v>
@@ -2820,28 +3138,28 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G75" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H75" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I75" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
